--- a/Base/Teams/Packers/Players Data.xlsx
+++ b/Base/Teams/Packers/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -47,6 +47,9 @@
     <t>P.Taylor</t>
   </si>
   <si>
+    <t>A.Lazard</t>
+  </si>
+  <si>
     <t>Am.Rodgers</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t>J.Deguara</t>
   </si>
   <si>
+    <t>D.Dafney</t>
+  </si>
+  <si>
     <t>Short Target</t>
   </si>
   <si>
@@ -80,9 +86,6 @@
     <t>M.Valdes-Scantling</t>
   </si>
   <si>
-    <t>A.Lazard</t>
-  </si>
-  <si>
     <t>R.Cobb</t>
   </si>
   <si>
@@ -93,9 +96,6 @@
   </si>
   <si>
     <t>M.Lewis</t>
-  </si>
-  <si>
-    <t>D.Dafney</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,16 +504,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -524,16 +524,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D4">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E4">
         <v>14</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -584,10 +584,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -604,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -634,6 +634,46 @@
       </c>
       <c r="F9">
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -654,22 +694,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -680,16 +720,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -755,25 +795,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>103</v>
+      </c>
+      <c r="D5">
+        <v>85</v>
+      </c>
+      <c r="E5">
+        <v>36</v>
+      </c>
+      <c r="F5">
+        <v>28</v>
+      </c>
+      <c r="G5">
+        <v>21</v>
+      </c>
+      <c r="H5">
         <v>19</v>
-      </c>
-      <c r="C5">
-        <v>92</v>
-      </c>
-      <c r="D5">
-        <v>76</v>
-      </c>
-      <c r="E5">
-        <v>34</v>
-      </c>
-      <c r="F5">
-        <v>27</v>
-      </c>
-      <c r="G5">
-        <v>19</v>
-      </c>
-      <c r="H5">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -781,25 +821,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6">
+        <v>17</v>
+      </c>
+      <c r="D6">
         <v>13</v>
       </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
       <c r="E6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -807,25 +847,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>11</v>
+      </c>
+      <c r="H7">
         <v>5</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -833,7 +873,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>33</v>
@@ -859,7 +899,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -885,7 +925,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -911,7 +951,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -937,7 +977,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -963,25 +1003,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -989,19 +1029,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14">
         <v>12</v>
       </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1015,7 +1055,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>1</v>

--- a/Base/Teams/Packers/Players Data.xlsx
+++ b/Base/Teams/Packers/Players Data.xlsx
@@ -484,10 +484,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -504,10 +504,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -524,10 +524,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <v>14</v>
@@ -584,7 +584,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -720,10 +720,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -746,10 +746,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -798,13 +798,13 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D5">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E5">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>28</v>
@@ -824,16 +824,16 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -850,10 +850,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -954,7 +954,7 @@
         <v>24</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -986,10 +986,10 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1006,16 +1006,16 @@
         <v>26</v>
       </c>
       <c r="C13">
+        <v>23</v>
+      </c>
+      <c r="D13">
         <v>21</v>
       </c>
-      <c r="D13">
-        <v>19</v>
-      </c>
       <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
         <v>3</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1032,10 +1032,10 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>2</v>

--- a/Base/Teams/Packers/Players Data.xlsx
+++ b/Base/Teams/Packers/Players Data.xlsx
@@ -504,13 +504,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D3">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>33</v>
@@ -524,16 +524,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D4">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <v>14</v>
       </c>
       <c r="F4">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -584,7 +584,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -624,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -720,10 +720,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D2">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -732,10 +732,10 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -746,10 +746,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -758,10 +758,10 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -798,22 +798,22 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D5">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H5">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -850,22 +850,22 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7">
         <v>6</v>
-      </c>
-      <c r="G7">
-        <v>11</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>26</v>
       </c>
       <c r="C13">
+        <v>26</v>
+      </c>
+      <c r="D13">
         <v>23</v>
-      </c>
-      <c r="D13">
-        <v>21</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -1018,7 +1018,7 @@
         <v>3</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1032,10 +1032,10 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1044,10 +1044,10 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">

--- a/Base/Teams/Packers/Players Data.xlsx
+++ b/Base/Teams/Packers/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>A.Rodgers</t>
+  </si>
+  <si>
+    <t>J.Love</t>
   </si>
   <si>
     <t>A.Jones</t>
@@ -453,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -487,13 +490,13 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -504,16 +507,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -524,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -544,16 +547,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -564,16 +567,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -584,16 +587,16 @@
         <v>10</v>
       </c>
       <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>2</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -604,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -624,7 +627,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -644,7 +647,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -673,6 +676,26 @@
         <v>0</v>
       </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
     </row>
@@ -694,22 +717,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -717,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -732,10 +755,10 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -743,13 +766,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -769,7 +792,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -795,25 +818,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
         <v>29</v>
       </c>
-      <c r="G5">
-        <v>25</v>
-      </c>
       <c r="H5">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -821,22 +844,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6">
         <v>6</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -847,25 +870,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>14</v>
+      </c>
+      <c r="H7">
         <v>7</v>
-      </c>
-      <c r="G7">
-        <v>13</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -873,7 +896,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>33</v>
@@ -899,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -925,22 +948,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>2</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -951,13 +974,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -977,13 +1000,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -992,10 +1015,10 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1003,7 +1026,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>26</v>
@@ -1029,25 +1052,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1055,10 +1078,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>0</v>

--- a/Base/Teams/Packers/Players Data.xlsx
+++ b/Base/Teams/Packers/Players Data.xlsx
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D4">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -547,16 +547,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E5">
         <v>16</v>
       </c>
       <c r="F5">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -647,7 +647,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -743,22 +743,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D2">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -821,22 +821,22 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D5">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F5">
+        <v>31</v>
+      </c>
+      <c r="G5">
         <v>30</v>
       </c>
-      <c r="G5">
-        <v>29</v>
-      </c>
       <c r="H5">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -873,10 +873,10 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>12</v>
@@ -885,10 +885,10 @@
         <v>8</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -899,7 +899,7 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8">
         <v>24</v>
@@ -1029,10 +1029,10 @@
         <v>27</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -1061,7 +1061,7 @@
         <v>19</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1081,13 +1081,13 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>0</v>
